--- a/biology/Zoologie/Géospize_pique-bois/Géospize_pique-bois.xlsx
+++ b/biology/Zoologie/Géospize_pique-bois/Géospize_pique-bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ospize_pique-bois</t>
+          <t>Géospize_pique-bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camarhynchus pallidus
 Le Géospize pique-bois (Camarhynchus pallidus) encore appelé Pinson pic (Woodpecker Finch en anglais), est une espèce de passereau connue pour utiliser, en cas de besoin, des épines de cactus pour extraire larves et insectes sous l'écorce des arbustes. Elle occupe, aux Galápagos, une niche écologique analogue à celle qu'ont conquise les pics, l'épine remplace la longue langue de ces derniers. Le pinson est capable d'ajuster la taille de l'épine afin d'arriver à ses fins.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ospize_pique-bois</t>
+          <t>Géospize_pique-bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe les sous-espèces suivantes :
 Camarhynchus pallidus pallidus (P.L. Sclater &amp; Salvin) 1870 ;
